--- a/Others_Solutions/Решения из книги Евич/Вариант 8/18/18.xlsx
+++ b/Others_Solutions/Решения из книги Евич/Вариант 8/18/18.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018-6\Desktop\Вариант 14\18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hem12\Documents\Документы Миша\Школьные предметы\ЕГЭ информатика\Solutions\PrepareForEGE_MishaPolykovsky\Others_Solutions\Решения из книги Евич\Вариант 8\18\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA060940-CB0C-44B3-895A-E5C88AE21457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +25,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +35,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,14 +66,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -336,11 +353,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +747,996 @@
         <v>98</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>MAX(A14,B13)+A1</f>
+        <v>1567</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:I13" si="0">MAX(B14,C13)+B1</f>
+        <v>1501</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1461</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1418</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1154</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1057</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1029</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>976</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>895</v>
+      </c>
+      <c r="J13">
+        <f>MAX(J14,K13)+J1</f>
+        <v>696</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K21" si="1">K14+K1</f>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:I14" si="2">MAX(A15,B14)+A2</f>
+        <v>1490</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>1427</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>1396</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1330</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>1138</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>995</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>934</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>823</v>
+      </c>
+      <c r="J14">
+        <f>MAX(J15,K14)+J2</f>
+        <v>598</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ref="A15:I15" si="3">MAX(A16,B15)+A3</f>
+        <v>1454</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>1326</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>1293</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>1278</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>1057</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>922</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>851</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>816</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>758</v>
+      </c>
+      <c r="J15">
+        <f>MAX(J16,K15)+J3</f>
+        <v>572</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ref="A16:I16" si="4">MAX(A17,B16)+A4</f>
+        <v>1377</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>1298</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>1245</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>1201</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>983</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>861</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>839</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>761</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>676</v>
+      </c>
+      <c r="J16">
+        <f>MAX(J17,K16)+J4</f>
+        <v>510</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ref="A17:I17" si="5">MAX(A18,B17)+A5</f>
+        <v>1214</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="5"/>
+        <v>1182</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="5"/>
+        <v>1170</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>1103</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>922</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>788</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>763</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>726</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>621</v>
+      </c>
+      <c r="J17">
+        <f>MAX(J18,K17)+J5</f>
+        <v>424</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ref="A18:I18" si="6">MAX(A19,B18)+A6</f>
+        <v>1191</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="6"/>
+        <v>1138</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="6"/>
+        <v>1111</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>1016</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>865</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>760</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>712</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>643</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>544</v>
+      </c>
+      <c r="J18">
+        <f>MAX(J19,K18)+J6</f>
+        <v>355</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" ref="A19:I19" si="7">MAX(A20,B19)+A7</f>
+        <v>1164</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="7"/>
+        <v>1103</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="7"/>
+        <v>1033</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="7"/>
+        <v>919</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="7"/>
+        <v>840</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>715</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>673</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>506</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>456</v>
+      </c>
+      <c r="J19">
+        <f>MAX(J20,K19)+J7</f>
+        <v>338</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ref="A20:I20" si="8">MAX(A21,B20)+A8</f>
+        <v>1082</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="8"/>
+        <v>1024</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="8"/>
+        <v>966</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="8"/>
+        <v>878</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="8"/>
+        <v>777</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="8"/>
+        <v>690</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>612</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="8"/>
+        <v>483</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>365</v>
+      </c>
+      <c r="J20">
+        <f>MAX(J21,K20)+J8</f>
+        <v>267</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:I21" si="9">MAX(A22,B21)+A9</f>
+        <v>905</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="9"/>
+        <v>866</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="9"/>
+        <v>833</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="9"/>
+        <v>811</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="9"/>
+        <v>662</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="9"/>
+        <v>589</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="9"/>
+        <v>529</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>457</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="9"/>
+        <v>330</v>
+      </c>
+      <c r="J21">
+        <f>MAX(J22,K21)+J9</f>
+        <v>242</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" ref="A22:I22" si="10">MAX(A23,B22)+A10</f>
+        <v>827</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="10"/>
+        <v>783</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="10"/>
+        <v>755</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="10"/>
+        <v>728</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="10"/>
+        <v>632</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="10"/>
+        <v>537</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="10"/>
+        <v>474</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="10"/>
+        <v>392</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="10"/>
+        <v>296</v>
+      </c>
+      <c r="J22">
+        <f>MAX(J23,K22)+J10</f>
+        <v>180</v>
+      </c>
+      <c r="K22">
+        <f>K23+K10</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" ref="A23:I23" si="11">B23+A11</f>
+        <v>671</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="11"/>
+        <v>612</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="11"/>
+        <v>583</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="11"/>
+        <v>526</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="11"/>
+        <v>477</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="11"/>
+        <v>437</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="11"/>
+        <v>354</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="11"/>
+        <v>260</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="11"/>
+        <v>215</v>
+      </c>
+      <c r="J23">
+        <f>K23+J11</f>
+        <v>155</v>
+      </c>
+      <c r="K23">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" ref="A25:A34" si="12">MIN(A26,B25)+A1</f>
+        <v>857</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B34" si="13">MIN(B26,C25)+B1</f>
+        <v>795</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:C34" si="14">MIN(C26,D25)+C1</f>
+        <v>775</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D34" si="15">MIN(D26,E25)+D1</f>
+        <v>732</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E34" si="16">MIN(E26,F25)+E1</f>
+        <v>644</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F34" si="17">MIN(F26,G25)+F1</f>
+        <v>628</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G34" si="18">MIN(G26,H25)+G1</f>
+        <v>642</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H34" si="19">MIN(H26,I25)+H1</f>
+        <v>700</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I34" si="20">MIN(I26,J25)+I1</f>
+        <v>666</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J33" si="21">MIN(J26,K25)+J1</f>
+        <v>627</v>
+      </c>
+      <c r="K25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="12"/>
+        <v>791</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="13"/>
+        <v>755</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="14"/>
+        <v>762</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="15"/>
+        <v>733</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="16"/>
+        <v>681</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="17"/>
+        <v>600</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="18"/>
+        <v>589</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="19"/>
+        <v>619</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="20"/>
+        <v>594</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="21"/>
+        <v>529</v>
+      </c>
+      <c r="K26">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="12"/>
+        <v>801</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="13"/>
+        <v>724</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="14"/>
+        <v>696</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="15"/>
+        <v>690</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="16"/>
+        <v>613</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="17"/>
+        <v>539</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="18"/>
+        <v>525</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="19"/>
+        <v>572</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="20"/>
+        <v>569</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="21"/>
+        <v>503</v>
+      </c>
+      <c r="K27">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="12"/>
+        <v>768</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="13"/>
+        <v>719</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="14"/>
+        <v>681</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="15"/>
+        <v>637</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="16"/>
+        <v>539</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="17"/>
+        <v>478</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="18"/>
+        <v>513</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="19"/>
+        <v>517</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="20"/>
+        <v>487</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="21"/>
+        <v>441</v>
+      </c>
+      <c r="K28">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="12"/>
+        <v>689</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="13"/>
+        <v>666</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="14"/>
+        <v>659</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="15"/>
+        <v>600</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="16"/>
+        <v>513</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="17"/>
+        <v>456</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="18"/>
+        <v>437</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="19"/>
+        <v>482</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="20"/>
+        <v>432</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="21"/>
+        <v>355</v>
+      </c>
+      <c r="K29">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="12"/>
+        <v>681</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="13"/>
+        <v>654</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="14"/>
+        <v>631</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="15"/>
+        <v>553</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="16"/>
+        <v>456</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="17"/>
+        <v>431</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="18"/>
+        <v>400</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="19"/>
+        <v>399</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="20"/>
+        <v>374</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="21"/>
+        <v>286</v>
+      </c>
+      <c r="K30">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="12"/>
+        <v>688</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="13"/>
+        <v>627</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="14"/>
+        <v>557</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="15"/>
+        <v>490</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="16"/>
+        <v>449</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="17"/>
+        <v>386</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="18"/>
+        <v>361</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="20"/>
+        <v>342</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="21"/>
+        <v>269</v>
+      </c>
+      <c r="K31">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="12"/>
+        <v>688</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="13"/>
+        <v>649</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="14"/>
+        <v>646</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="15"/>
+        <v>592</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="16"/>
+        <v>525</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="17"/>
+        <v>438</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="18"/>
+        <v>360</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="19"/>
+        <v>277</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="20"/>
+        <v>251</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="21"/>
+        <v>216</v>
+      </c>
+      <c r="K32">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="12"/>
+        <v>630</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="13"/>
+        <v>591</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="14"/>
+        <v>558</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="15"/>
+        <v>536</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="16"/>
+        <v>453</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="17"/>
+        <v>423</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="18"/>
+        <v>371</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="19"/>
+        <v>316</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="20"/>
+        <v>251</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="21"/>
+        <v>217</v>
+      </c>
+      <c r="K33">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="12"/>
+        <v>682</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="13"/>
+        <v>638</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="14"/>
+        <v>610</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="15"/>
+        <v>622</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="16"/>
+        <v>572</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="17"/>
+        <v>477</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="18"/>
+        <v>414</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="19"/>
+        <v>332</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="20"/>
+        <v>236</v>
+      </c>
+      <c r="J34">
+        <f>MIN(J35,K34)+J10</f>
+        <v>155</v>
+      </c>
+      <c r="K34">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>671</v>
+      </c>
+      <c r="B35">
+        <v>612</v>
+      </c>
+      <c r="C35">
+        <v>583</v>
+      </c>
+      <c r="D35">
+        <v>526</v>
+      </c>
+      <c r="E35">
+        <v>477</v>
+      </c>
+      <c r="F35">
+        <v>437</v>
+      </c>
+      <c r="G35">
+        <v>354</v>
+      </c>
+      <c r="H35">
+        <v>260</v>
+      </c>
+      <c r="I35">
+        <v>215</v>
+      </c>
+      <c r="J35">
+        <v>155</v>
+      </c>
+      <c r="K35">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
